--- a/Flipkart_3_Hours/Urls/Flipkart Scraping.xlsx
+++ b/Flipkart_3_Hours/Urls/Flipkart Scraping.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$745</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="1483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="1489">
   <si>
     <t>Nokia 105 DS 2020 (Black)</t>
   </si>
@@ -4463,6 +4466,24 @@
   </si>
   <si>
     <t>https://www.flipkart.com/redmi-11-prime-5g-chrome-silver-128-gb/p/itme0b907d1e24ea?pid=MOBGHDXFGAQHEM3K&amp;lid=LSTMOBGHDXFGAQHEM3KISGFHP&amp;marketplace=FLIPKART&amp;q=Redmi+11+Prime+5G+%286GB%2B128GB%29-Chrome+Silver&amp;store=tyy%2F4io&amp;srno=s_1_1&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=61455752-4783-44c5-b82a-98da59c3c94b.MOBGHDXFGAQHEM3K.SEARCH&amp;ppt=pp&amp;ppn=pp&amp;ssid=ghuo7og6cg0000001674045428073&amp;qH=7d2db83eb7304491</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/redmi-10-prime-astral-white-64-gb/p/itm4f601c2dd0f55</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/redmi-10-prime-bifrost-blue-64-gb/p/itm6478ce2edc629?pid=MOBGK2GF23QESG7K&amp;lid=LSTMOBGK2GF23QESG7KSKV7MH&amp;marketplace=FLIPKART&amp;sattr[]=color&amp;st=color</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/redmi-10-prime-phantom-black-64-gb/p/itm7093af5741fe4?pid=MOBGK2GFPNPYFHP7&amp;lid=LSTMOBGK2GFPNPYFHP7FRJDOL&amp;marketplace=FLIPKART&amp;sattr[]=color&amp;st=color</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/note-11-pro-plus-5g-stealth-black-256-gb/p/itm3daba4f9af065?pid=MOBGHTDJZBGQGB4Z&amp;lid=LSTMOBGHTDJZBGQGB4ZQU2OAT&amp;marketplace=FLIPKART&amp;q=Redmi+Note+11+PRO+Plus+5G+%28Stealth+Black%2C+256+GB%29+%288+GB+RAM%29&amp;store=tyy%2F4io&amp;srno=s_1_1&amp;otracker=search&amp;otracker1=search&amp;fm=Search&amp;iid=666ca020-7112-4250-abca-33e89ca5074c.MOBGHTDJZBGQGB4Z.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;ssid=4o7q6h8gwg0000001675838972197&amp;qH=37ff3b07c0b1d86a</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/realme-9-pro-5g-midnight-black-128-gb/p/itm15e7a06fe9352</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/redmi-k50i-5g-stealth-black-256-gb/p/itm7e8559c2fbde8?pid=MOBGHDXFPQSGJZ5K&amp;lid=LSTMOBGHDXFPQSGJZ5K7HSSDM&amp;marketplace=FLIPKART&amp;q=REDMI+K50i+5G+%28Stealth+Black%2C+256+GB%29+%288+GB+RAM%29&amp;store=tyy%2F4io&amp;srno=s_1_1&amp;otracker=search&amp;otracker1=search&amp;fm=organic&amp;iid=928a1cc4-278e-4c0b-a7bb-2dc9b62a02aa.MOBGHDXFPQSGJZ5K.SEARCH&amp;ppt=pp&amp;ppn=pp&amp;ssid=j3j7tweu0g0000001675839158967&amp;qH=0dd1638b6c0da107</t>
   </si>
 </sst>
 </file>
@@ -4965,8 +4986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C745"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A727" workbookViewId="0">
-      <selection activeCell="B750" sqref="B750"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12497,7 +12518,7 @@
         <v>219</v>
       </c>
       <c r="C684" t="s">
-        <v>1429</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="685" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12508,7 +12529,7 @@
         <v>1080</v>
       </c>
       <c r="C685" t="s">
-        <v>1429</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="686" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12519,7 +12540,7 @@
         <v>336</v>
       </c>
       <c r="C686" t="s">
-        <v>1429</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="687" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12805,7 +12826,7 @@
         <v>385</v>
       </c>
       <c r="C712" t="s">
-        <v>1429</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="713" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12997,187 +13018,188 @@
     </row>
     <row r="730" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730">
-        <v>36094</v>
+        <v>38769</v>
       </c>
       <c r="B730" t="s">
-        <v>313</v>
+        <v>1106</v>
       </c>
       <c r="C730" t="s">
-        <v>1429</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="731" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731">
-        <v>36098</v>
+        <v>38768</v>
       </c>
       <c r="B731" t="s">
-        <v>285</v>
+        <v>1108</v>
       </c>
       <c r="C731" t="s">
-        <v>1429</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="732" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732">
-        <v>36096</v>
+        <v>38571</v>
       </c>
       <c r="B732" t="s">
-        <v>329</v>
+        <v>1112</v>
       </c>
       <c r="C732" t="s">
-        <v>1429</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="733" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733">
-        <v>36511</v>
+        <v>38710</v>
       </c>
       <c r="B733" t="s">
-        <v>534</v>
+        <v>1113</v>
       </c>
       <c r="C733" t="s">
-        <v>1429</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="734" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734">
-        <v>38769</v>
+        <v>37905</v>
       </c>
       <c r="B734" t="s">
-        <v>1106</v>
+        <v>1129</v>
       </c>
       <c r="C734" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="735" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735">
-        <v>38768</v>
+        <v>35711</v>
       </c>
       <c r="B735" t="s">
-        <v>1108</v>
+        <v>1136</v>
       </c>
       <c r="C735" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="736" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736">
-        <v>38571</v>
+        <v>39163</v>
       </c>
       <c r="B736" t="s">
-        <v>1112</v>
+        <v>1269</v>
       </c>
       <c r="C736" t="s">
-        <v>1429</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="737" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737">
-        <v>38710</v>
+        <v>39164</v>
       </c>
       <c r="B737" t="s">
-        <v>1113</v>
+        <v>1270</v>
       </c>
       <c r="C737" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="738" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738">
-        <v>37905</v>
+        <v>39165</v>
       </c>
       <c r="B738" t="s">
-        <v>1129</v>
+        <v>1271</v>
       </c>
       <c r="C738" t="s">
-        <v>1475</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="739" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739">
-        <v>35711</v>
+        <v>39166</v>
       </c>
       <c r="B739" t="s">
-        <v>1136</v>
+        <v>1272</v>
       </c>
       <c r="C739" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="740" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740">
-        <v>39163</v>
+        <v>39167</v>
       </c>
       <c r="B740" t="s">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="C740" t="s">
-        <v>1477</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="741" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741">
-        <v>39164</v>
+        <v>39168</v>
       </c>
       <c r="B741" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="C741" t="s">
-        <v>1478</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="742" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742">
-        <v>39165</v>
+        <v>36096</v>
       </c>
       <c r="B742" t="s">
-        <v>1271</v>
+        <v>329</v>
       </c>
       <c r="C742" t="s">
-        <v>1479</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="743" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743">
-        <v>39166</v>
+        <v>36094</v>
       </c>
       <c r="B743" t="s">
-        <v>1272</v>
+        <v>313</v>
       </c>
       <c r="C743" t="s">
-        <v>1480</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="744" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744">
-        <v>39167</v>
+        <v>36098</v>
       </c>
       <c r="B744" t="s">
-        <v>1273</v>
+        <v>285</v>
       </c>
       <c r="C744" t="s">
-        <v>1481</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="745" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745">
-        <v>39168</v>
+        <v>36511</v>
       </c>
       <c r="B745" t="s">
-        <v>1274</v>
+        <v>534</v>
       </c>
       <c r="C745" t="s">
-        <v>1482</v>
+        <v>1429</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C745"/>
   <conditionalFormatting sqref="A681:A745">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A745">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
